--- a/HomeWorks/List2.xlsx
+++ b/HomeWorks/List2.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,31 @@
         <v>31014</v>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Inna</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Oleksandrivna</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Petrova</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>22667</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>female</t>
         </is>

--- a/HomeWorks/List2.xlsx
+++ b/HomeWorks/List2.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,23 @@
         <v>22667</v>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>olga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" s="1" t="n">
+        <v>37307</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>female</t>
         </is>
